--- a/va_facility_data_2025-02-20/Goose Creek VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Goose%20Creek%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Goose Creek VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Goose%20Creek%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R8af37e394a6042d7a18d2c4655d4d495"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R40ef284c52f143ab8c67229a40961fb8"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R32d8d127715a45b4b346b969be489773"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R282aa4988181441a8e9715a5b2c87967"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R5a3bf9ba4ecd4a51b8ab986b2e5c78e4"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R23fe110b45694a0a883615f59124194f"/>
   </x:sheets>
 </x:workbook>
 </file>
